--- a/meja/src/test/resources/com/dua3/meja/WorkbookTestHelper.xlsx
+++ b/meja/src/test/resources/com/dua3/meja/WorkbookTestHelper.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="18060" windowHeight="11130"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="18060" windowHeight="11130" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="standard tests" sheetId="1" r:id="rId1"/>
-    <sheet name="regressions" sheetId="3" r:id="rId2"/>
+    <sheet name="regressions" sheetId="3" r:id="rId1"/>
+    <sheet name="standard tests" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -20,7 +20,7 @@
     <author>Wulff, Carsten (ext)</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>short user defined format</t>
   </si>
@@ -204,6 +204,19 @@
   </si>
   <si>
     <t>the order of fields is defined in format</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Thursday, March 02, 2017</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>works when read directly from workbook
+when copied to another workbook, a new DataFormat is created from the format string returned by POI with a 2-digit day field</t>
   </si>
 </sst>
 </file>
@@ -341,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -351,18 +364,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -370,13 +371,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -677,8 +708,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="17">
+        <v>42796</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="20">
+        <v>33512</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="22">
+        <v>42917</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -689,46 +841,51 @@
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="5">
@@ -737,12 +894,13 @@
       <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="6">
@@ -751,12 +909,13 @@
       <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="7">
@@ -765,12 +924,13 @@
       <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="8">
@@ -779,15 +939,16 @@
       <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="5">
@@ -796,12 +957,13 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="6">
@@ -810,15 +972,16 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="7">
@@ -827,18 +990,19 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="8">
@@ -847,27 +1011,29 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D12">
@@ -876,15 +1042,16 @@
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="1"/>
+      <c r="G12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D13">
@@ -893,15 +1060,16 @@
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="1"/>
+      <c r="G13" s="11">
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="3">
@@ -910,15 +1078,16 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="1"/>
+      <c r="G14" s="11">
         <v>1.2354000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="3">
@@ -927,15 +1096,16 @@
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="1"/>
+      <c r="G15" s="11">
         <v>1.2356</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="3">
@@ -944,15 +1114,16 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="1"/>
+      <c r="G16" s="11">
         <v>1.2343999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="3">
@@ -961,15 +1132,16 @@
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="1"/>
+      <c r="G17" s="11">
         <v>1.2345999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="4">
@@ -978,15 +1150,16 @@
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="2">
@@ -995,15 +1168,16 @@
       <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="1"/>
+      <c r="G19" s="11">
         <v>1234567.8899999999</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D20">
@@ -1012,15 +1186,16 @@
       <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="1"/>
+      <c r="G20" s="11">
         <v>1234567.8899999999</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D21">
@@ -1029,15 +1204,16 @@
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="1"/>
+      <c r="G21" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D22">
@@ -1046,15 +1222,16 @@
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="1"/>
+      <c r="G22" s="11">
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="3">
@@ -1063,15 +1240,16 @@
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="1"/>
+      <c r="G23" s="11">
         <v>1.2354000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="3">
@@ -1080,15 +1258,16 @@
       <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="1"/>
+      <c r="G24" s="11">
         <v>1.2356</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="3">
@@ -1097,15 +1276,16 @@
       <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="1"/>
+      <c r="G25" s="11">
         <v>1.2343999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="3">
@@ -1114,15 +1294,16 @@
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="1"/>
+      <c r="G26" s="11">
         <v>1.2345999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="4">
@@ -1131,15 +1312,16 @@
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="2">
@@ -1148,15 +1330,16 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="1"/>
+      <c r="G28" s="11">
         <v>1234567.8899999999</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29">
@@ -1165,98 +1348,17 @@
       <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="1"/>
+      <c r="G29" s="11">
         <v>1234567.8899999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9">
-        <v>33512</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11">
-        <v>42917</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/meja/src/test/resources/com/dua3/meja/WorkbookTestHelper.xlsx
+++ b/meja/src/test/resources/com/dua3/meja/WorkbookTestHelper.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="18060" windowHeight="11130" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="18060" windowHeight="11130"/>
   </bookViews>
   <sheets>
-    <sheet name="regressions" sheetId="3" r:id="rId1"/>
-    <sheet name="standard tests" sheetId="1" r:id="rId2"/>
+    <sheet name="standard tests" sheetId="1" r:id="rId1"/>
+    <sheet name="regressions" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>short user defined format</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>number formats</t>
-  </si>
-  <si>
-    <t>conversion of custom formats is not yet implemented</t>
   </si>
   <si>
     <t>1,25 - Note that 1,25 has an exact double representation</t>
@@ -264,7 +261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +277,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -371,7 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -708,6 +698,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>42795</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>42796</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8">
+        <v>42798</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42795</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6">
+        <v>42796</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42798</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>1.2344999999999999</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="11">
+        <v>1.2344999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.2354000000000001</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="11">
+        <v>1.2354000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.2356</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="11">
+        <v>1.2356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="11">
+        <v>1.2343999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.2345999999999999</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="11">
+        <v>1.2345999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="11">
+        <v>1234567.8899999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="11">
+        <v>1234567.8899999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>1.2344999999999999</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="11">
+        <v>1.2344999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.2354000000000001</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="11">
+        <v>1.2354000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.2356</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11">
+        <v>1.2356</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="11">
+        <v>1.2343999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.2345999999999999</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="11">
+        <v>1.2345999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="11">
+        <v>1234567.8899999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="11">
+        <v>1234567.8899999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -741,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>26</v>
@@ -751,72 +1264,72 @@
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="C3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="16">
         <v>42796</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>54</v>
+      <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="19">
         <v>33512</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="15" t="s">
-        <v>51</v>
+      <c r="F4" s="20"/>
+      <c r="G4" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="21">
         <v>42917</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="15" t="s">
-        <v>51</v>
+      <c r="F5" s="23"/>
+      <c r="G5" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -826,539 +1339,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5">
-        <v>42795</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6">
-        <v>42796</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7">
-        <v>42797</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8">
-        <v>42798</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5">
-        <v>42795</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6">
-        <v>42796</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7">
-        <v>42797</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8">
-        <v>42798</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>1.2344999999999999</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="11">
-        <v>1.2344999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.2354000000000001</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="11">
-        <v>1.2354000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1.2356</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="11">
-        <v>1.2356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.2343999999999999</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="11">
-        <v>1.2343999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.2345999999999999</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="11">
-        <v>1.2345999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1234567.8899999999</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="11">
-        <v>1234567.8899999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>1234567.8899999999</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="11">
-        <v>1234567.8899999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22">
-        <v>1.2344999999999999</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="11">
-        <v>1.2344999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.2354000000000001</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="11">
-        <v>1.2354000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.2356</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="11">
-        <v>1.2356</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.2343999999999999</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="11">
-        <v>1.2343999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1.2345999999999999</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="11">
-        <v>1.2345999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1234567.8899999999</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="11">
-        <v>1234567.8899999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29">
-        <v>1234567.8899999999</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="11">
-        <v>1234567.8899999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B11:G11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>